--- a/Arquivos e Sprints/backlogSprint.xlsx
+++ b/Arquivos e Sprints/backlogSprint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27025"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="254" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0AFF716-29B2-44AC-823D-682E85D6DFE9}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E100ADB-7B0C-40B3-AB1E-9882C80D33EF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
   <si>
     <t>NOMES</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Product Backlog</t>
   </si>
   <si>
-    <t>ID:</t>
+    <t>Sprint</t>
   </si>
   <si>
     <t>Tarefa</t>
@@ -69,9 +69,6 @@
     <t>Prioridade:</t>
   </si>
   <si>
-    <t>Sprint</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -108,10 +105,10 @@
     <t>Elaboração da interface mobile que irá constituir o sistema</t>
   </si>
   <si>
-    <t>Entrega de protótipo Desktop/Web</t>
-  </si>
-  <si>
-    <t>Entrega da interface que irá compor a aplicação Desktop/Web</t>
+    <t>Entrega de protótipo Desktop</t>
+  </si>
+  <si>
+    <t>Entrega da interface que irá compor a aplicação Desktop</t>
   </si>
   <si>
     <t xml:space="preserve">Elaboração da escrita do projeto PIM </t>
@@ -132,7 +129,7 @@
     <t>Gerenciamento de empresas</t>
   </si>
   <si>
-    <t>Elaboração da sessão de geração de relatório de empresas</t>
+    <t>Elaboração da sessão de gerenciamento de empresas</t>
   </si>
   <si>
     <t>Gerenciamento de usuários</t>
@@ -240,6 +237,9 @@
     <t>Igor Prado - 09/09/2023</t>
   </si>
   <si>
+    <t>Entrega do protótipo que irá compor a aplicação Desktop</t>
+  </si>
+  <si>
     <t>Emerson - 12/09/2023</t>
   </si>
   <si>
@@ -249,9 +249,6 @@
     <t>Daniel - 17/09/2023</t>
   </si>
   <si>
-    <t>Eduarda - 19/09/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">Igor Guimarães - 21/09/2023 </t>
   </si>
   <si>
@@ -276,13 +273,13 @@
     <t>Desenvolvimento de software para internet</t>
   </si>
   <si>
-    <t>Igor Prado - 05/10/2023</t>
+    <t>Daniel - 05/10/2023</t>
   </si>
   <si>
     <t>Tópicos especiais de programação orientada a objetos</t>
   </si>
   <si>
-    <t>Daniel  - 05/10/2023</t>
+    <t>Igor Prado  - 05/10/2023</t>
   </si>
   <si>
     <t>Projeto de sistemas orientado a objetos</t>
@@ -315,13 +312,10 @@
     <t>Emerson- 12/10/2023</t>
   </si>
   <si>
-    <t>Elaboração da sessão de gerenciamento de empresas</t>
-  </si>
-  <si>
     <t>Função criar empresas</t>
   </si>
   <si>
-    <t>Emerson - 15/10/2023</t>
+    <t>Emerson - 13/10/2023</t>
   </si>
   <si>
     <t>Função editar empresas</t>
@@ -336,7 +330,7 @@
     <t>Gabriel - 15/10/2023</t>
   </si>
   <si>
-    <t>Criação das sessões onde serão mostradas as informações do usuários</t>
+    <t>Criação das sessões onde serão mostradas as informações dos usuários</t>
   </si>
   <si>
     <t>Emerson - 18/10/2023</t>
@@ -351,13 +345,22 @@
     <t>Cadastrar novo usuário / Informações necessárias para cadastro</t>
   </si>
   <si>
-    <t>Emerson - 21/10/2023</t>
+    <t>Emerson - 24/10/2023</t>
   </si>
   <si>
     <t>Criação das sessões onde serão mostradas as informações do funcionários</t>
   </si>
   <si>
-    <t>Exibir informações do funcionário</t>
+    <t>Emerson - 25/10/2023</t>
+  </si>
+  <si>
+    <t>Botões de confirmação</t>
+  </si>
+  <si>
+    <t>Emerson - 28/10/2023</t>
+  </si>
+  <si>
+    <t>Emerson - 31/10/2023</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -606,17 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -640,35 +632,201 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -676,30 +834,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,102 +848,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,283 +875,304 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1464,133 +1527,115 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="39" t="s">
         <v>12</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1"/>
-      <c r="B11" s="7">
+      <c r="B11" s="38">
         <v>1</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="F11" s="23">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
-      <c r="B12" s="37">
+      <c r="B12" s="48">
         <v>2</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="E12" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="B13" s="7">
+      <c r="B13" s="38">
         <v>3</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="F13" s="23">
-        <v>3</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
-      <c r="B14" s="2">
+      <c r="B14" s="48">
         <v>4</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
+      <c r="E14" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
-      <c r="B15" s="32">
+      <c r="B15" s="38">
         <v>5</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="23">
-        <v>5</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>17</v>
+      <c r="E15" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1598,41 +1643,35 @@
       <c r="B16" s="48">
         <v>6</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="E16" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>17</v>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="45">
+      <c r="B17" s="38">
         <v>7</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="23">
-        <v>7</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>17</v>
+      <c r="E17" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1640,57 +1679,54 @@
       <c r="B18" s="48">
         <v>8</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="2">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="52">
+      <c r="B19" s="38">
         <v>9</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="23">
-        <v>9</v>
-      </c>
-      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="40">
+      <c r="B20" s="49">
         <v>10</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2">
-        <v>10</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="E20" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1"/>
@@ -1703,438 +1739,438 @@
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="63">
+      <c r="B23" s="58">
         <v>1</v>
       </c>
-      <c r="C23" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="99" t="s">
+      <c r="C23" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="F23" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>42</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="19" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1"/>
-      <c r="B25" s="80">
+      <c r="B25" s="96">
         <v>2</v>
       </c>
-      <c r="C25" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="80" t="s">
+      <c r="C25" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="F25" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="20" t="s">
+      <c r="B26" s="97"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="20" t="s">
+      <c r="B27" s="97"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="98"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="20" t="s">
+      <c r="F28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F28" s="15" t="s">
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="72">
+        <v>3</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="67" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="91">
-        <v>3</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="87" t="s">
+      <c r="E29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="26" t="s">
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="73"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="92"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="30" t="s">
+      <c r="F30" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="30" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="74"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="B31" s="93"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="27" t="s">
+    <row r="32" spans="1:7">
+      <c r="B32" s="62">
+        <v>4</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="B32" s="80">
-        <v>4</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="81" t="s">
+      <c r="F32" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="64"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="82">
+        <v>5</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="16" t="s">
+      <c r="D37" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="83"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="20" t="s">
+      <c r="F38" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="83"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="20" t="s">
+      <c r="F39" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="102"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="90"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="67">
-        <v>5</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="77" t="s">
+      <c r="F40" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="62">
+        <v>6</v>
+      </c>
+      <c r="C41" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="68"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="68"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="68"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="76"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="29" t="s">
+      <c r="D41" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>73</v>
       </c>
+      <c r="F41" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="80">
-        <v>6</v>
-      </c>
-      <c r="C42" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="24" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="11" t="s">
         <v>75</v>
       </c>
+      <c r="F42" s="22" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="25" t="s">
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="F43" s="22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="25" t="s">
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="11" t="s">
         <v>79</v>
       </c>
+      <c r="F44" s="22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="25" t="s">
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="F45" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" s="25" t="s">
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="11" t="s">
         <v>83</v>
       </c>
+      <c r="F46" s="22" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="25" t="s">
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="11" t="s">
         <v>85</v>
       </c>
+      <c r="F47" s="22" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="25" t="s">
+      <c r="B48" s="64"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="11" t="s">
         <v>87</v>
       </c>
+      <c r="F48" s="31" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="36" t="s">
+      <c r="B49" s="82">
+        <v>7</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>89</v>
       </c>
+      <c r="F49" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="67">
-        <v>7</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="65" t="s">
+      <c r="B50" s="83"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="77">
+        <v>8</v>
+      </c>
+      <c r="C51" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="68"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" s="35" t="s">
+      <c r="D51" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="44" t="s">
         <v>93</v>
       </c>
+      <c r="F51" s="32" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="56">
-        <v>8</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="B52" s="78"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="48" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="57"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="10" t="s">
+      <c r="B53" s="78"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="57"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="50" t="s">
+      <c r="B54" s="82">
+        <v>9</v>
+      </c>
+      <c r="C54" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="67">
-        <v>9</v>
-      </c>
-      <c r="C55" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="33" t="s">
+      <c r="B55" s="83"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="47" t="s">
         <v>101</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -2142,21 +2178,27 @@
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="68"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="55" t="s">
+      <c r="B56" s="93"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="68"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="55" t="s">
+      <c r="B57" s="78">
+        <v>10</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="44" t="s">
         <v>105</v>
       </c>
       <c r="F57" s="32" t="s">
@@ -2164,34 +2206,32 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="56">
-        <v>10</v>
-      </c>
-      <c r="C58" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="B58" s="78"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="45" t="s">
         <v>107</v>
       </c>
+      <c r="F58" s="48" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="57"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="69"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="51" t="s">
-        <v>99</v>
-      </c>
+      <c r="B59" s="79"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1"/>
@@ -2294,6 +2334,9 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1"/>
@@ -2313,20 +2356,15 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" s="1" customFormat="1"/>
+    <row r="87" spans="1:8" s="1" customFormat="1"/>
+    <row r="88" spans="1:8">
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
     <row r="89" spans="1:8">
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8">
       <c r="F90" s="1"/>
@@ -2380,11 +2418,11 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="6:7">
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="6:7" s="1" customFormat="1"/>
+    <row r="103" spans="6:7" s="1" customFormat="1"/>
+    <row r="104" spans="6:7">
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
     <row r="105" spans="6:7">
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -2533,12 +2571,32 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="6:7">
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="B29:B31"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -2546,30 +2604,6 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="D25:D28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2577,15 +2611,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe">
@@ -2595,6 +2620,15 @@
     <TaxCatchAll xmlns="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2799,11 +2833,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09922339-5624-48D3-A295-1E2E623A64F4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09922339-5624-48D3-A295-1E2E623A64F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Arquivos e Sprints/backlogSprint.xlsx
+++ b/Arquivos e Sprints/backlogSprint.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="314" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E100ADB-7B0C-40B3-AB1E-9882C80D33EF}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1826FAA-9715-411B-A0F4-DD6EE68A9552}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,7 +327,7 @@
     <t>Exibir informações cadastrais</t>
   </si>
   <si>
-    <t>Gabriel - 15/10/2023</t>
+    <t>Emerson - 15/10/2023</t>
   </si>
   <si>
     <t>Criação das sessões onde serão mostradas as informações dos usuários</t>
@@ -1019,6 +1019,120 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,9 +1142,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,100 +1151,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1142,15 +1166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,21 +1173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1697,7 +1697,7 @@
       <c r="B19" s="38">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="55" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="38" t="s">
@@ -1739,12 +1739,12 @@
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="58">
+      <c r="B23" s="62">
         <v>1</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="97" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -1771,9 +1771,9 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="61"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="16" t="s">
         <v>42</v>
       </c>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1"/>
-      <c r="B25" s="96">
+      <c r="B25" s="99">
         <v>2</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="104" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -1803,9 +1803,9 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="17" t="s">
         <v>47</v>
       </c>
@@ -1816,9 +1816,9 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="100"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="105"/>
       <c r="E27" s="17" t="s">
         <v>49</v>
       </c>
@@ -1828,9 +1828,9 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="98"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="101"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="106"/>
       <c r="E28" s="17" t="s">
         <v>51</v>
       </c>
@@ -1839,13 +1839,13 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="72">
+      <c r="B29" s="90">
         <v>3</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="86" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="23" t="s">
@@ -1856,9 +1856,9 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="73"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="68"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="27" t="s">
         <v>55</v>
       </c>
@@ -1867,9 +1867,9 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="74"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="69"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="24" t="s">
         <v>20</v>
       </c>
@@ -1878,13 +1878,13 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="62">
+      <c r="B32" s="82">
         <v>4</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="89" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -1895,9 +1895,9 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="17" t="s">
         <v>60</v>
       </c>
@@ -1906,9 +1906,9 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="17" t="s">
         <v>62</v>
       </c>
@@ -1917,9 +1917,9 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="17" t="s">
         <v>64</v>
       </c>
@@ -1928,9 +1928,9 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="64"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="64"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="14" t="s">
         <v>66</v>
       </c>
@@ -1939,13 +1939,13 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="82">
+      <c r="B37" s="66">
         <v>5</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="103" t="s">
+      <c r="D37" s="79" t="s">
         <v>68</v>
       </c>
       <c r="E37" s="18" t="s">
@@ -1956,9 +1956,9 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="83"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="104"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="80"/>
       <c r="E38" s="18" t="s">
         <v>60</v>
       </c>
@@ -1967,9 +1967,9 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="83"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="104"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="18" t="s">
         <v>62</v>
       </c>
@@ -1978,9 +1978,9 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="102"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="105"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="81"/>
       <c r="E40" s="18" t="s">
         <v>66</v>
       </c>
@@ -1989,13 +1989,13 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="62">
+      <c r="B41" s="82">
         <v>6</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="82" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -2006,9 +2006,9 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="11" t="s">
         <v>75</v>
       </c>
@@ -2017,9 +2017,9 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
       <c r="E43" s="11" t="s">
         <v>77</v>
       </c>
@@ -2028,9 +2028,9 @@
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="11" t="s">
         <v>79</v>
       </c>
@@ -2039,9 +2039,9 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="11" t="s">
         <v>81</v>
       </c>
@@ -2050,9 +2050,9 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
       <c r="E46" s="11" t="s">
         <v>83</v>
       </c>
@@ -2061,9 +2061,9 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
       <c r="E47" s="11" t="s">
         <v>85</v>
       </c>
@@ -2072,9 +2072,9 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="64"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="64"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="83"/>
       <c r="E48" s="11" t="s">
         <v>87</v>
       </c>
@@ -2083,13 +2083,13 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="82">
+      <c r="B49" s="66">
         <v>7</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="91" t="s">
+      <c r="D49" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E49" s="29" t="s">
@@ -2100,9 +2100,9 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="83"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="92"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="30" t="s">
         <v>91</v>
       </c>
@@ -2111,13 +2111,13 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="77">
+      <c r="B51" s="56">
         <v>8</v>
       </c>
-      <c r="C51" s="87" t="s">
+      <c r="C51" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="89" t="s">
+      <c r="D51" s="60" t="s">
         <v>32</v>
       </c>
       <c r="E51" s="44" t="s">
@@ -2128,9 +2128,9 @@
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="78"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="90"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="45" t="s">
         <v>95</v>
       </c>
@@ -2139,9 +2139,9 @@
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="78"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="90"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="50" t="s">
         <v>97</v>
       </c>
@@ -2150,13 +2150,13 @@
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="82">
+      <c r="B54" s="66">
         <v>9</v>
       </c>
-      <c r="C54" s="84" t="s">
+      <c r="C54" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="62" t="s">
         <v>34</v>
       </c>
       <c r="E54" s="54" t="s">
@@ -2167,9 +2167,9 @@
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="83"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="75"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="47" t="s">
         <v>101</v>
       </c>
@@ -2178,9 +2178,9 @@
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="93"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="76"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="47" t="s">
         <v>103</v>
       </c>
@@ -2189,13 +2189,13 @@
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="78">
+      <c r="B57" s="57">
         <v>10</v>
       </c>
-      <c r="C57" s="80" t="s">
+      <c r="C57" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E57" s="44" t="s">
@@ -2206,9 +2206,9 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="78"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="63"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="71"/>
       <c r="E58" s="45" t="s">
         <v>107</v>
       </c>
@@ -2217,9 +2217,9 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="79"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="71"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="72"/>
       <c r="E59" s="46" t="s">
         <v>97</v>
       </c>
@@ -2573,30 +2573,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="B29:B31"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -2604,6 +2580,30 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="D25:D28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2611,6 +2611,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe">
@@ -2620,15 +2629,6 @@
     <TaxCatchAll xmlns="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2833,11 +2833,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09922339-5624-48D3-A295-1E2E623A64F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09922339-5624-48D3-A295-1E2E623A64F4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Arquivos e Sprints/backlogSprint.xlsx
+++ b/Arquivos e Sprints/backlogSprint.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="315" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1826FAA-9715-411B-A0F4-DD6EE68A9552}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="11_5F5D2D60A937A998CD3E4CDAAFD09C40C61DBD2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A66C7FC2-F04E-44FF-99A3-31819C3AC605}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,7 +336,7 @@
     <t>Emerson - 18/10/2023</t>
   </si>
   <si>
-    <t>Botão pesquisar para buscar funcionário por CPF ou CNPJ</t>
+    <t>Botão pesquisar para buscar funcionário por CPF</t>
   </si>
   <si>
     <t>Emerson - 20/10/2023</t>
@@ -855,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1022,157 +1022,160 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1467,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1739,12 +1742,12 @@
     </row>
     <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1752,13 +1755,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="62">
+      <c r="B23" s="59">
         <v>1</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="62" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -1771,9 +1774,9 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="98"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="16" t="s">
         <v>42</v>
       </c>
@@ -1784,13 +1787,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1"/>
-      <c r="B25" s="99">
+      <c r="B25" s="64">
         <v>2</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="70" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -1803,9 +1806,9 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="105"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="17" t="s">
         <v>47</v>
       </c>
@@ -1816,9 +1819,9 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="105"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="17" t="s">
         <v>49</v>
       </c>
@@ -1828,9 +1831,9 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="101"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="106"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="17" t="s">
         <v>51</v>
       </c>
@@ -1839,13 +1842,13 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="90">
+      <c r="B29" s="82">
         <v>3</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="75" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="23" t="s">
@@ -1856,9 +1859,9 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="91"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="87"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="27" t="s">
         <v>55</v>
       </c>
@@ -1867,9 +1870,9 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="92"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="88"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="24" t="s">
         <v>20</v>
       </c>
@@ -1878,13 +1881,13 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="82">
+      <c r="B32" s="78">
         <v>4</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="89" t="s">
+      <c r="D32" s="81" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -1895,9 +1898,9 @@
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="17" t="s">
         <v>60</v>
       </c>
@@ -1906,9 +1909,9 @@
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="17" t="s">
         <v>62</v>
       </c>
@@ -1917,9 +1920,9 @@
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="17" t="s">
         <v>64</v>
       </c>
@@ -1928,9 +1931,9 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="83"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="83"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="14" t="s">
         <v>66</v>
       </c>
@@ -1939,13 +1942,13 @@
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="66">
+      <c r="B37" s="85">
         <v>5</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="89" t="s">
         <v>68</v>
       </c>
       <c r="E37" s="18" t="s">
@@ -1956,9 +1959,9 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="67"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="80"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="90"/>
       <c r="E38" s="18" t="s">
         <v>60</v>
       </c>
@@ -1967,9 +1970,9 @@
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="67"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="80"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="90"/>
       <c r="E39" s="18" t="s">
         <v>62</v>
       </c>
@@ -1978,9 +1981,9 @@
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="78"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="81"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="18" t="s">
         <v>66</v>
       </c>
@@ -1989,13 +1992,13 @@
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="82">
+      <c r="B41" s="78">
         <v>6</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="78" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -2006,9 +2009,9 @@
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
       <c r="E42" s="11" t="s">
         <v>75</v>
       </c>
@@ -2017,9 +2020,9 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
       <c r="E43" s="11" t="s">
         <v>77</v>
       </c>
@@ -2028,9 +2031,9 @@
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
       <c r="E44" s="11" t="s">
         <v>79</v>
       </c>
@@ -2039,9 +2042,9 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
       <c r="E45" s="11" t="s">
         <v>81</v>
       </c>
@@ -2050,9 +2053,9 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
       <c r="E46" s="11" t="s">
         <v>83</v>
       </c>
@@ -2061,9 +2064,9 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
       <c r="E47" s="11" t="s">
         <v>85</v>
       </c>
@@ -2072,9 +2075,9 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="83"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="83"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="80"/>
       <c r="E48" s="11" t="s">
         <v>87</v>
       </c>
@@ -2083,13 +2086,13 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="66">
+      <c r="B49" s="85">
         <v>7</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="105" t="s">
         <v>30</v>
       </c>
       <c r="E49" s="29" t="s">
@@ -2100,9 +2103,9 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="67"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="65"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="106"/>
       <c r="E50" s="30" t="s">
         <v>91</v>
       </c>
@@ -2111,13 +2114,13 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="56">
+      <c r="B51" s="101">
         <v>8</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="60" t="s">
+      <c r="D51" s="103" t="s">
         <v>32</v>
       </c>
       <c r="E51" s="44" t="s">
@@ -2128,9 +2131,9 @@
       </c>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="57"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="61"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="104"/>
       <c r="E52" s="45" t="s">
         <v>95</v>
       </c>
@@ -2139,9 +2142,9 @@
       </c>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="57"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="61"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="104"/>
       <c r="E53" s="50" t="s">
         <v>97</v>
       </c>
@@ -2150,13 +2153,13 @@
       </c>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="66">
+      <c r="B54" s="85">
         <v>9</v>
       </c>
-      <c r="C54" s="74" t="s">
+      <c r="C54" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="59" t="s">
         <v>34</v>
       </c>
       <c r="E54" s="54" t="s">
@@ -2167,9 +2170,9 @@
       </c>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="67"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="63"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="47" t="s">
         <v>101</v>
       </c>
@@ -2178,10 +2181,10 @@
       </c>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="73"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="47" t="s">
+      <c r="B56" s="97"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="107" t="s">
         <v>103</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -2189,16 +2192,16 @@
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="57">
+      <c r="B57" s="93">
         <v>10</v>
       </c>
-      <c r="C57" s="69" t="s">
+      <c r="C57" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E57" s="44" t="s">
+      <c r="E57" s="45" t="s">
         <v>105</v>
       </c>
       <c r="F57" s="32" t="s">
@@ -2206,9 +2209,9 @@
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="57"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="71"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="45" t="s">
         <v>107</v>
       </c>
@@ -2217,9 +2220,9 @@
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="68"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="72"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="92"/>
       <c r="E59" s="46" t="s">
         <v>97</v>
       </c>
@@ -2573,6 +2576,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="B29:B31"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -2580,30 +2607,6 @@
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="D25:D28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2611,27 +2614,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <ReferenceId xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe" xsi:nil="true"/>
-    <TaxCatchAll xmlns="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C338669122B5C44694053D6EEFD94595" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1986906787b7e0df2669edaf36578ed5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="04f82610-d0f3-40d4-885b-4e9c343f34fe" xmlns:ns3="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc35d52aa6f6dec6682988da9543127c" ns2:_="" ns3:_="">
     <xsd:import namespace="04f82610-d0f3-40d4-885b-4e9c343f34fe"/>
@@ -2832,8 +2814,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <ReferenceId xmlns="04f82610-d0f3-40d4-885b-4e9c343f34fe" xsi:nil="true"/>
+    <TaxCatchAll xmlns="a98dde18-a7ae-43d6-ad4a-a0ff1b576886" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF82C330-1A2E-4CEE-A380-78ACBA842F8D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2841,5 +2844,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF82C330-1A2E-4CEE-A380-78ACBA842F8D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D97FA0-0715-476D-8483-C79E107D3381}"/>
 </file>